--- a/anextour parser/results/faiss/qds3_res_alt.xlsx
+++ b/anextour parser/results/faiss/qds3_res_alt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dipl\anextour parser\results\faiss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6361C8F8-9DCD-4664-A970-B94B2CD39202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E10EA6-6CBA-4D2E-9F55-41C266D2BDFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="2010" windowWidth="30660" windowHeight="19590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="2010" windowWidth="19470" windowHeight="19590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,253 +61,253 @@
     <t>0</t>
   </si>
   <si>
-    <t>Экскурсионный тур СПб: Петергоф и Кронштадт в программе</t>
+    <t>есть ли тур по лен области с посещением Петергофа и Кронштадта?</t>
   </si>
   <si>
     <t>[2, 3, 4, 5, 6, 7, 8, 23, 24, 25, 26, 27, 28, 125, 126, 201]</t>
   </si>
   <si>
-    <t>[np.int64(6), np.int64(8), np.int64(126), np.int64(201), np.int64(5)]</t>
+    <t>[np.int64(6), np.int64(125), np.int64(8), np.int64(126), np.int64(201)]</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>Туры в Псковскую область: Псков и Пушкинские Горы</t>
+    <t>Хотелось бы посмотреть Псков и Пушкинские горы. Есть ли такой тур?</t>
   </si>
   <si>
     <t>[100, 101, 102, 103, 104, 105, 106, 107]</t>
   </si>
   <si>
-    <t>[np.int64(105), np.int64(100), np.int64(102), np.int64(107), np.int64(103)]</t>
+    <t>[np.int64(105), np.int64(7), np.int64(100), np.int64(102), np.int64(107)]</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>Экскурсионный тур в Карелию в Кивач, Марциальные воды</t>
+    <t>Что посмотреть в Карелии за 3 дня? Хочется Кивач, Марциальные воды и Петрозаводск.</t>
   </si>
   <si>
     <t>[9, 44, 58, 156, 201]</t>
   </si>
   <si>
-    <t>[np.int64(9), np.int64(58), np.int64(156), np.int64(156), np.int64(9)]</t>
+    <t>[np.int64(156), np.int64(9), np.int64(156), np.int64(9), np.int64(58)]</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>Экскурсионный тур по Владивостоку с походом в Сафари-парк</t>
+    <t>Есть ли у вас туры во Владивосток, где можно посетить Русский остров и Приморский сафари-парк?</t>
   </si>
   <si>
     <t>[46, 118, 119, 182, 183, 184, 196, 212, 213, 214]</t>
   </si>
   <si>
-    <t>[np.int64(196), np.int64(119), np.int64(118), np.int64(119), np.int64(214)]</t>
+    <t>[np.int64(119), np.int64(119), np.int64(213), np.int64(213), np.int64(196)]</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>тур по Москве с экскурсиями по Красной площади и т. П.</t>
+    <t xml:space="preserve"> Хотелось бы посмотреть на Москву. Что можете предложить?</t>
   </si>
   <si>
     <t>[0, 1]</t>
   </si>
   <si>
-    <t>[np.int64(0), np.int64(0), np.int64(1), np.int64(0), np.int64(125)]</t>
+    <t>[np.int64(0), np.int64(125), np.int64(0), np.int64(1), np.int64(0)]</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>Туры в Карелию с посещением Центра Шунгита</t>
+    <t>Есть туры в Карелию, где можно посетить центр шунгита?</t>
   </si>
   <si>
     <t>[9, 156]</t>
   </si>
   <si>
-    <t>[np.int64(156), np.int64(9), np.int64(156), np.int64(9), np.int64(58)]</t>
+    <t>[np.int64(156), np.int64(9), np.int64(156), np.int64(156), np.int64(58)]</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>фототур в Мурманск с наблюдением за китами</t>
+    <t>Хочу посмотреть на морских животных в Мурманске. Что можете подсказать?</t>
   </si>
   <si>
     <t>[172, 173, 174, 176, 189]</t>
   </si>
   <si>
-    <t>[np.int64(176), np.int64(176), np.int64(189), np.int64(173), np.int64(172)]</t>
+    <t>[np.int64(189), np.int64(176), np.int64(176), np.int64(46), np.int64(189)]</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>Тур на Камчатку: вулканы, термальные источники и морские экскурсии</t>
+    <t>Меня интересует посетить горячие источники Камчатки. Что можете предложить?</t>
   </si>
   <si>
     <t>[198, 199, 200]</t>
   </si>
   <si>
-    <t>[np.int64(199), np.int64(199), np.int64(200), np.int64(200), np.int64(198)]</t>
+    <t>[np.int64(134), np.int64(199), np.int64(199), np.int64(85), np.int64(9)]</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>Тур на Сахалин / Куриллы посмотреть море</t>
+    <t>Покажите мне туры по Сахалину. Что обычно люди посещают в рамках этих туров?</t>
   </si>
   <si>
     <t>[168, 169, 170, 171, 225, 224]</t>
   </si>
   <si>
-    <t>[np.int64(170), np.int64(224), np.int64(168), np.int64(225), np.int64(169)]</t>
+    <t>[np.int64(225), np.int64(56), np.int64(169), np.int64(224), np.int64(225)]</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>Туры Сахалин - Курилы: горячие источники, прогулки по побережью</t>
+    <t>хочу посетить Сахалин, есть ли возможность посетить и Курильские острова в рамках одного тура?</t>
   </si>
   <si>
     <t>[171, 225, 224]</t>
   </si>
   <si>
-    <t>[np.int64(225), np.int64(224), np.int64(171), np.int64(224), np.int64(170)]</t>
+    <t>[np.int64(225), np.int64(56), np.int64(170), np.int64(224), np.int64(224)]</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>санатории калининградская область</t>
+    <t>ищу санаторий, чтобы подтянуть свое здоровье. Есть ли у вас предложения по Калининградской области?</t>
   </si>
   <si>
     <t>[160, 161, 162]</t>
   </si>
   <si>
-    <t>[np.int64(180), np.int64(181), np.int64(128), np.int64(129), np.int64(130)]</t>
+    <t>[np.int64(180), np.int64(181), np.int64(132), np.int64(32), np.int64(34)]</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>Экскурсионный тур в Калининград по городу, Куршской косе</t>
+    <t>что можно посетить в Калининграде, кроме самого города?</t>
   </si>
   <si>
     <t>[32, 33, 34, 35, 128, 129, 130, 131, 132, 180, 181, 211]</t>
   </si>
   <si>
-    <t>[np.int64(180), np.int64(181), np.int64(35), np.int64(34), np.int64(180)]</t>
+    <t>[np.int64(32), np.int64(34), np.int64(132), np.int64(128), np.int64(129)]</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>обзорный тур по Великому Новгороду</t>
+    <t>Хочу посетить Великий Новгород. Ваши предложения?</t>
   </si>
   <si>
     <t>[108, 109, 110, 111, 112, 114, 115, 116, 117, 197]</t>
   </si>
   <si>
-    <t>[np.int64(108), np.int64(109), np.int64(112), np.int64(117), np.int64(110)]</t>
+    <t>[np.int64(110), np.int64(114), np.int64(115), np.int64(108), np.int64(109)]</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>тур в дом-музей Достоевского</t>
+    <t>Какие туры в Новгородской области включают посещение дома-музея Достоевского?</t>
   </si>
   <si>
     <t>[108, 109, 114]</t>
   </si>
   <si>
-    <t>[np.int64(114), np.int64(114), np.int64(108), np.int64(109), np.int64(14)]</t>
+    <t>[np.int64(114), np.int64(109), np.int64(114), np.int64(116), np.int64(108)]</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>Сибирский хайкинг тур  по горной гряде "Сундуки"</t>
+    <t>Какие туры в Хакасию у вас есть, чтобы увидеть природу?</t>
   </si>
   <si>
     <t>[45, 47, 48, 59, 89, 90, 123, 147, 148, 149, 150, 151, 190]</t>
   </si>
   <si>
-    <t>[np.int64(151), np.int64(89), np.int64(191), np.int64(45), np.int64(47)]</t>
+    <t>[np.int64(147), np.int64(59), np.int64(59), np.int64(147), np.int64(45)]</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>Дагестан: туры по республике с посещением аула-призрака Гамсутль</t>
+    <t>Какие у вас есть туры в Дагестан с посещением гор и, возможно, аулов?</t>
   </si>
   <si>
     <t>[60, 61, 86, 127, 164, 177, 202, 210, 219, 220, 221, 222]</t>
   </si>
   <si>
-    <t>[np.int64(60), np.int64(61), np.int64(219), np.int64(222), np.int64(221)]</t>
+    <t>[np.int64(60), np.int64(164), np.int64(61), np.int64(221), np.int64(127)]</t>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
-    <t>Тур на Байкал зимой</t>
+    <t>Что у вас есть по турам с посещением Байкала?</t>
   </si>
   <si>
     <t>[36, 41, 42, 43, 49, 50, 51, 56, 57, 67, 68, 69, 113, 120, 121, 122, 124, 137, 138, 139, 142, 175, 185, 191, 195, 223]</t>
   </si>
   <si>
-    <t>[np.int64(50), np.int64(195), np.int64(50), np.int64(69), np.int64(68)]</t>
+    <t>[np.int64(56), np.int64(137), np.int64(122), np.int64(36), np.int64(49)]</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
-    <t>экскурсия Чечня «Город Грозный – прошлое и настоящее»</t>
+    <t>Хочу погулять по Грозному. Что у вас есть?</t>
   </si>
   <si>
     <t>[66, 72, 83, 86, 87, 135, 136, 145]</t>
   </si>
   <si>
-    <t>[np.int64(136), np.int64(135), np.int64(83), np.int64(84), np.int64(61)]</t>
+    <t>[np.int64(136), np.int64(135), np.int64(61), np.int64(84), np.int64(83)]</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
-    <t xml:space="preserve">Горнолыжный курорт Домбай Карачаево-Черкесия </t>
+    <t>Интересует посещение курорта Домбай. На что можно посмотреть там дополнительно?</t>
   </si>
   <si>
     <t>[62, 64, 65, 144, 163, 165, 179, 186, 187]</t>
   </si>
   <si>
-    <t>[np.int64(64), np.int64(65), np.int64(187), np.int64(84), np.int64(134)]</t>
+    <t>[np.int64(134), np.int64(165), np.int64(187), np.int64(62), np.int64(144)]</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>Ингушетия: тур в горные районы</t>
+    <t>Хочу поехать в Ингушетию, чтобы увидеть горы. Что посоветуете?</t>
   </si>
   <si>
     <t>[65, 66, 72, 88, 133]</t>
   </si>
   <si>
-    <t>[np.int64(146), np.int64(79), np.int64(80), np.int64(133), np.int64(145)]</t>
+    <t>[np.int64(133), np.int64(146), np.int64(87), np.int64(88), np.int64(79)]</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>обзорная экскурсия по Йошкар-оле</t>
+    <t>Что включают в себя туры по Йошкар-Оле?</t>
   </si>
   <si>
     <t>[16, 17, 18, 19, 20]</t>
   </si>
   <si>
-    <t>[np.int64(17), np.int64(16), np.int64(18), np.int64(19), np.int64(19)]</t>
+    <t>[np.int64(17), np.int64(16), np.int64(18), np.int64(20), np.int64(17)]</t>
   </si>
 </sst>
 </file>
@@ -673,7 +673,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E23" sqref="E23:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,7 +924,7 @@
         <v>40</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1243,7 +1243,7 @@
         <v>84</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1272,13 +1272,13 @@
         <v>88</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -1319,15 +1319,15 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E23">
         <f>AVERAGE(E2:E22)</f>
-        <v>0.90476190476190477</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="F23">
         <f t="shared" ref="F23:I23" si="0">AVERAGE(F2:F22)</f>
-        <v>0.90476190476190477</v>
+        <v>0.95238095238095233</v>
       </c>
       <c r="G23">
         <f t="shared" si="0"/>
-        <v>0.90476190476190477</v>
+        <v>0.95238095238095233</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
